--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Python\Competition\16-AutoML\01-ECAA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>date</t>
   </si>
@@ -30,18 +25,18 @@
     <t>策略</t>
   </si>
   <si>
+    <t>train mse/rmse</t>
+  </si>
+  <si>
+    <t>valid mse</t>
+  </si>
+  <si>
+    <t>线上分数</t>
+  </si>
+  <si>
     <t>提交文件</t>
   </si>
   <si>
-    <t>train mse/rmse</t>
-  </si>
-  <si>
-    <t>valid mse</t>
-  </si>
-  <si>
-    <t>线上分数</t>
-  </si>
-  <si>
     <t>sub_20210807_1</t>
   </si>
   <si>
@@ -84,71 +79,122 @@
     <t>xgb, lr=0.05</t>
   </si>
   <si>
+    <t>1.11065/1.2336389</t>
+  </si>
+  <si>
     <t>sub_xgb_20210809_1</t>
   </si>
   <si>
-    <t>1.11065/1.2336389</t>
-  </si>
-  <si>
     <t>12-xgb_sklearn_api_100</t>
   </si>
   <si>
     <t>xgb, lr=0.05, 100轮, 5折交叉验证</t>
   </si>
   <si>
+    <t>[1.2059052, 1.2050977, 1.1987214, 1.2083454, 1.2097332]</t>
+  </si>
+  <si>
     <t>sub_xgb_sklearn_kfold_20210809_1</t>
   </si>
   <si>
-    <t>[1.2059052, 1.2050977, 1.1987214, 1.2083454, 1.2097332]</t>
-  </si>
-  <si>
     <t>13-xgb_sklearn_api_4000</t>
   </si>
   <si>
     <t>xgb, lr=0.05, 早停, 5折交叉验证</t>
   </si>
   <si>
+    <t>[1.1655559, 1.1668706, 1.170023, 1.1707573, 1.1695000]</t>
+  </si>
+  <si>
     <t>sklearn_api_kfold_0810_2</t>
   </si>
   <si>
-    <t>[1.1655559, 1.1668706, 1.170023, 1.1707573, 1.1695000]</t>
+    <t>15-psi_drop</t>
+  </si>
+  <si>
+    <t>[1.2452854, 1.2403166, 1.2578597, 1.2415471, 1.2461902]</t>
+  </si>
+  <si>
+    <t>drop_psi_20210810_1</t>
+  </si>
+  <si>
+    <t>16-psi</t>
+  </si>
+  <si>
+    <t>[1.2218574, 1.2146051, 1.232868, 1.2171365, 1.2209445]</t>
+  </si>
+  <si>
+    <t>drop_psi_stop_20210810_2</t>
   </si>
   <si>
     <t>17-lgb_lr_0.05_shift</t>
   </si>
   <si>
+    <t>同09-lgb_lr_0.05, 加入shift</t>
+  </si>
+  <si>
     <t>sub_lgb_20210810_1</t>
   </si>
   <si>
-    <t>drop_psi_stop_20210810_2</t>
-  </si>
-  <si>
-    <t>[1.2218574, 1.2146051, 1.232868, 1.2171365, 1.2209445]</t>
-  </si>
-  <si>
-    <t>16-psi</t>
-  </si>
-  <si>
     <t>18-top300</t>
   </si>
   <si>
     <t>sub_lgb_20210810_2</t>
   </si>
   <si>
-    <t>drop_psi_20210810_1</t>
-  </si>
-  <si>
-    <t>15-psi_drop</t>
-  </si>
-  <si>
-    <t>[1.2452854, 1.2403166, 1.2578597, 1.2415471, 1.2461902]</t>
+    <t>19-date_diff</t>
+  </si>
+  <si>
+    <t>加date diff</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210811_1</t>
+  </si>
+  <si>
+    <t>加入商品shift</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210811_2</t>
+  </si>
+  <si>
+    <t>01-automl_cat_num_stats</t>
+  </si>
+  <si>
+    <t>automl的特征+类别数值统计特征</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210811_3</t>
+  </si>
+  <si>
+    <t>02-cat_num_stats</t>
+  </si>
+  <si>
+    <t>类别数值统计特征</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210811_4</t>
+  </si>
+  <si>
+    <t>03-cat_stats</t>
+  </si>
+  <si>
+    <t>类别统计特征</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210812_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,14 +215,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,12 +368,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,9 +567,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -221,17 +832,61 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -489,30 +1144,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.09765625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="27.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.8984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.69921875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="27.69921875" style="1"/>
+    <col min="1" max="1" width="27.6964285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6964285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.0982142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8928571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.0535714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3392857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9017857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.2767857142857" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="27.6964285714286" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,140 +1188,140 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>807</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1.2579</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.29523</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.25873</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.174728921</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>1.2579</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.2952300000000001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.2587299999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1.174728921</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>1.12573</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.28473</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.26424</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.1756999885</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
-        <v>1.1257299999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.2847299999999999</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.26424</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1.1756999884999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>1.25558</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.29556</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.2572</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.1759758354</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>1.2555799999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.29556</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.2572000000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.1759758354000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>808</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2">
-        <v>1.8917019060298901</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="E6" s="2">
+        <v>1.89170190602989</v>
+      </c>
+      <c r="G6" s="2">
         <v>1.6665106848</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10">
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
-        <v>1.2357899999999999</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.2751999999999999</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="D7" s="2">
+        <v>1.23579</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.2752</v>
+      </c>
+      <c r="F7" s="2">
         <v>1.23763</v>
       </c>
-      <c r="H7" s="3">
-        <v>1.1852766888999999</v>
+      <c r="G7" s="3">
+        <v>1.1852766889</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.11</v>
       </c>
       <c r="J7" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.98009999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9801</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>1.3323401940545401</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1.33234019405454</v>
+      </c>
+      <c r="G8" s="2">
         <v>1.2136369341</v>
       </c>
+      <c r="I8" s="1">
+        <v>1.1</v>
+      </c>
       <c r="J8" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.97150000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>809</v>
       </c>
@@ -672,66 +1331,66 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2">
+        <v>1.1387</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.23385</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.14387</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.142014715</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2">
-        <v>1.1387</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1.2338499999999999</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.1438699999999999</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.142014715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2">
+        <v>0.7893</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.7893</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2">
+        <v>0.86504</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.1360750046</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.86504000000000003</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.1360750046000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="4">
+        <v>1.1185689142</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4">
-        <v>1.1185689141999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>810</v>
       </c>
@@ -741,87 +1400,207 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2">
+        <v>1.1278877948</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="2">
-        <v>1.1278877947999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.1336181703</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.1365097515</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.14269</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.21562</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.14542</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.1241556738</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1" t="s">
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="1">
-        <v>1.1336181702999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.1365097515</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.14269</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.2156199999999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.1454200000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.1241556738</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
+      <c r="D18" s="1">
+        <v>1.12797</v>
       </c>
       <c r="E18" s="1">
-        <v>1.1279699999999999</v>
+        <v>1.21223</v>
       </c>
       <c r="F18" s="1">
-        <v>1.2122299999999999</v>
+        <v>1.1317</v>
       </c>
       <c r="G18" s="1">
-        <v>1.1316999999999999</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.1234864395999999</v>
+        <v>1.1234864396</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.10937</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.21002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.11335</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.1202194525</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>811</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.11232</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.20982</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.20974</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.11451</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.20974</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.11876</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.1203060723</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.0733</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.18733</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.07837</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.1076500931</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.19059443574747</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.1048</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.22698508257417</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.1279579899</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12220"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>date</t>
   </si>
@@ -182,6 +182,33 @@
   </si>
   <si>
     <t>sub_lgb_20210812_5</t>
+  </si>
+  <si>
+    <t>04-cat2_num_stats</t>
+  </si>
+  <si>
+    <t>类别特征组合</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210812_1</t>
+  </si>
+  <si>
+    <t>05-cat_num_stats_orders</t>
+  </si>
+  <si>
+    <t>同02-cat_num_stats, 加入orders等特征</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210812_2</t>
+  </si>
+  <si>
+    <t>06-所有特征</t>
+  </si>
+  <si>
+    <t>所有特征</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210812_3</t>
   </si>
 </sst>
 </file>
@@ -191,8 +218,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -216,12 +243,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -230,7 +326,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,32 +356,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,83 +379,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,19 +407,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,55 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,91 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,24 +586,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,17 +613,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,26 +665,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,148 +691,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,12 +1171,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -1321,6 +1342,14 @@
         <v>0.9715</v>
       </c>
     </row>
+    <row r="9" spans="9:10">
+      <c r="I9" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.0832</v>
+      </c>
+    </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>809</v>
@@ -1596,6 +1625,75 @@
       </c>
       <c r="H26" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.22159</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.22751</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.22697933932882</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.1245982114</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.0399</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.18917062784877</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.04734</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.1047303099</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.03156</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.18073837818251</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.03997</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.090359092</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Python\Competition\16-AutoML\01-ECAA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>date</t>
   </si>
@@ -209,19 +214,36 @@
   </si>
   <si>
     <t>sub_lgb_20210812_3</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210812_4</t>
+  </si>
+  <si>
+    <t>07-catboost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>boost</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,151 +264,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,192 +287,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -588,255 +300,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,62 +322,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1165,34 +594,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="27.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6964285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6964285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.0982142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8928571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.0535714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3392857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9017857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.2767857142857" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="27.6964285714286" style="1"/>
+    <col min="1" max="1" width="27.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.296875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="27.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>807</v>
       </c>
@@ -1227,10 +655,10 @@
         <v>1.2579</v>
       </c>
       <c r="E2" s="2">
-        <v>1.29523</v>
+        <v>1.2952300000000001</v>
       </c>
       <c r="F2" s="2">
-        <v>1.25873</v>
+        <v>1.2587299999999999</v>
       </c>
       <c r="G2" s="2">
         <v>1.174728921</v>
@@ -1239,52 +667,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>1.12573</v>
+        <v>1.1257299999999999</v>
       </c>
       <c r="E3" s="2">
-        <v>1.28473</v>
+        <v>1.2847299999999999</v>
       </c>
       <c r="F3" s="2">
         <v>1.26424</v>
       </c>
       <c r="G3" s="2">
-        <v>1.1756999885</v>
+        <v>1.1756999884999999</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>1.25558</v>
+        <v>1.2555799999999999</v>
       </c>
       <c r="E4" s="2">
         <v>1.29556</v>
       </c>
       <c r="F4" s="2">
-        <v>1.2572</v>
+        <v>1.2572000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>1.1759758354</v>
+        <v>1.1759758354000001</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="7:7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>808</v>
       </c>
@@ -1292,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>1.89170190602989</v>
+        <v>1.8917019060298901</v>
       </c>
       <c r="G6" s="2">
         <v>1.6665106848</v>
@@ -1301,56 +729,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>1.23579</v>
+        <v>1.2357899999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>1.2752</v>
+        <v>1.2751999999999999</v>
       </c>
       <c r="F7" s="2">
         <v>1.23763</v>
       </c>
       <c r="G7" s="3">
-        <v>1.1852766889</v>
+        <v>1.1852766888999999</v>
       </c>
       <c r="I7" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.9801</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
+        <v>0.98009999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>1.33234019405454</v>
+        <v>1.3323401940545401</v>
       </c>
       <c r="G8" s="2">
         <v>1.2136369341</v>
       </c>
       <c r="I8" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.9715</v>
-      </c>
-    </row>
-    <row r="9" spans="9:10">
+        <v>0.97150000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
         <v>1.19</v>
       </c>
       <c r="J9" s="1">
-        <v>1.0832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1.0831999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>809</v>
       </c>
@@ -1364,10 +792,10 @@
         <v>1.1387</v>
       </c>
       <c r="E10" s="4">
-        <v>1.23385</v>
+        <v>1.2338499999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>1.14387</v>
+        <v>1.1438699999999999</v>
       </c>
       <c r="G10" s="4">
         <v>1.142014715</v>
@@ -1376,7 +804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1390,16 +818,16 @@
         <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>0.86504</v>
+        <v>0.86504000000000003</v>
       </c>
       <c r="G11" s="4">
-        <v>1.1360750046</v>
+        <v>1.1360750046000001</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,16 +838,16 @@
         <v>25</v>
       </c>
       <c r="G12" s="4">
-        <v>1.1185689142</v>
+        <v>1.1185689141999999</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>810</v>
       </c>
@@ -1433,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="G14" s="2">
-        <v>1.1278877948</v>
+        <v>1.1278877947999999</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1447,13 +875,13 @@
         <v>32</v>
       </c>
       <c r="G15" s="1">
-        <v>1.1336181703</v>
+        <v>1.1336181702999999</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1467,7 +895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1478,10 +906,10 @@
         <v>1.14269</v>
       </c>
       <c r="E17" s="1">
-        <v>1.21562</v>
+        <v>1.2156199999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>1.14542</v>
+        <v>1.1454200000000001</v>
       </c>
       <c r="G17" s="1">
         <v>1.1241556738</v>
@@ -1490,27 +918,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1">
-        <v>1.12797</v>
+        <v>1.1279699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>1.21223</v>
+        <v>1.2122299999999999</v>
       </c>
       <c r="F18" s="1">
-        <v>1.1317</v>
+        <v>1.1316999999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>1.1234864396</v>
+        <v>1.1234864395999999</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1521,10 +949,10 @@
         <v>1.10937</v>
       </c>
       <c r="E20" s="1">
-        <v>1.21002</v>
+        <v>1.2100200000000001</v>
       </c>
       <c r="F20" s="1">
-        <v>1.11335</v>
+        <v>1.1133500000000001</v>
       </c>
       <c r="G20" s="1">
         <v>1.1202194525</v>
@@ -1533,7 +961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>811</v>
       </c>
@@ -1541,13 +969,13 @@
         <v>1.11232</v>
       </c>
       <c r="E22" s="1">
-        <v>1.20982</v>
+        <v>1.2098199999999999</v>
       </c>
       <c r="F22" s="1">
         <v>1.20974</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -1555,7 +983,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="1">
-        <v>1.11451</v>
+        <v>1.1145099999999999</v>
       </c>
       <c r="E23" s="1">
         <v>1.20974</v>
@@ -1570,7 +998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1578,13 +1006,13 @@
         <v>48</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0733</v>
+        <v>1.0732999999999999</v>
       </c>
       <c r="E24" s="1">
         <v>1.18733</v>
       </c>
       <c r="F24" s="1">
-        <v>1.07837</v>
+        <v>1.0783700000000001</v>
       </c>
       <c r="G24" s="1">
         <v>1.1076500931</v>
@@ -1593,7 +1021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1610,7 +1038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1618,16 +1046,16 @@
         <v>54</v>
       </c>
       <c r="E26" s="1">
-        <v>1.22698508257417</v>
+        <v>1.2269850825741699</v>
       </c>
       <c r="G26" s="1">
-        <v>1.1279579899</v>
+        <v>1.1279579899000001</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1638,19 +1066,19 @@
         <v>1.22159</v>
       </c>
       <c r="E28" s="1">
-        <v>1.22751</v>
+        <v>1.2275100000000001</v>
       </c>
       <c r="F28" s="1">
         <v>1.22697933932882</v>
       </c>
       <c r="G28" s="1">
-        <v>1.1245982114</v>
+        <v>1.1245982113999999</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
@@ -1661,19 +1089,19 @@
         <v>1.0399</v>
       </c>
       <c r="E29" s="1">
-        <v>1.18917062784877</v>
+        <v>1.1891706278487699</v>
       </c>
       <c r="F29" s="1">
-        <v>1.04734</v>
+        <v>1.0473399999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>1.1047303099</v>
+        <v>1.1047303099000001</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1687,18 +1115,39 @@
         <v>1.18073837818251</v>
       </c>
       <c r="F30" s="1">
-        <v>1.03997</v>
+        <v>1.0399700000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>1.090359092</v>
+        <v>1.0903590919999999</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1">
+        <f>1.09180047*1.09180047</f>
+        <v>1.1920282662922208</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.94304508090000005</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.0988311041000001</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Python\Competition\16-AutoML\01-ECAA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="28800" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>date</t>
   </si>
@@ -216,14 +211,16 @@
     <t>sub_lgb_20210812_3</t>
   </si>
   <si>
-    <t>sub_lgb_20210812_4</t>
-  </si>
-  <si>
     <t>07-catboost</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>cat</t>
     </r>
     <r>
@@ -231,19 +228,35 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>boost</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_lgb_20210812_4</t>
+  </si>
+  <si>
+    <t>08-catboost_lr_0.03</t>
+  </si>
+  <si>
+    <t>同上, lr=0.03</t>
+  </si>
+  <si>
+    <t>sub_cat_20210813_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,21 +277,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,12 +436,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,9 +635,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -316,27 +893,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,33 +1215,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.69921875" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6964285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6964285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.0982142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.9017857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="27.69921875" style="1"/>
+    <col min="6" max="6" width="19.2946428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9017857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.2946428571429" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="27.6964285714286" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>807</v>
       </c>
@@ -655,10 +1277,10 @@
         <v>1.2579</v>
       </c>
       <c r="E2" s="2">
-        <v>1.2952300000000001</v>
+        <v>1.29523</v>
       </c>
       <c r="F2" s="2">
-        <v>1.2587299999999999</v>
+        <v>1.25873</v>
       </c>
       <c r="G2" s="2">
         <v>1.174728921</v>
@@ -667,52 +1289,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>1.1257299999999999</v>
+        <v>1.12573</v>
       </c>
       <c r="E3" s="2">
-        <v>1.2847299999999999</v>
+        <v>1.28473</v>
       </c>
       <c r="F3" s="2">
         <v>1.26424</v>
       </c>
       <c r="G3" s="2">
-        <v>1.1756999884999999</v>
+        <v>1.1756999885</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>1.2555799999999999</v>
+        <v>1.25558</v>
       </c>
       <c r="E4" s="2">
         <v>1.29556</v>
       </c>
       <c r="F4" s="2">
-        <v>1.2572000000000001</v>
+        <v>1.2572</v>
       </c>
       <c r="G4" s="2">
-        <v>1.1759758354000001</v>
+        <v>1.1759758354</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:7">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>808</v>
       </c>
@@ -720,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>1.8917019060298901</v>
+        <v>1.89170190602989</v>
       </c>
       <c r="G6" s="2">
         <v>1.6665106848</v>
@@ -729,56 +1351,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10">
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>1.2357899999999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.2751999999999999</v>
+        <v>1.23579</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.2752</v>
       </c>
       <c r="F7" s="2">
         <v>1.23763</v>
       </c>
-      <c r="G7" s="3">
-        <v>1.1852766888999999</v>
+      <c r="G7" s="4">
+        <v>1.1852766889</v>
       </c>
       <c r="I7" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="J7" s="1">
-        <v>0.98009999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.9801</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>1.3323401940545401</v>
+        <v>1.33234019405454</v>
       </c>
       <c r="G8" s="2">
         <v>1.2136369341</v>
       </c>
       <c r="I8" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J8" s="1">
-        <v>0.97150000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.9715</v>
+      </c>
+    </row>
+    <row r="9" spans="9:10">
       <c r="I9" s="1">
         <v>1.19</v>
       </c>
       <c r="J9" s="1">
-        <v>1.0831999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.0832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>809</v>
       </c>
@@ -791,20 +1413,20 @@
       <c r="D10" s="2">
         <v>1.1387</v>
       </c>
-      <c r="E10" s="4">
-        <v>1.2338499999999999</v>
+      <c r="E10" s="5">
+        <v>1.23385</v>
       </c>
       <c r="F10" s="2">
-        <v>1.1438699999999999</v>
-      </c>
-      <c r="G10" s="4">
+        <v>1.14387</v>
+      </c>
+      <c r="G10" s="5">
         <v>1.142014715</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -814,40 +1436,40 @@
       <c r="D11" s="2">
         <v>0.7893</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>0.86504000000000003</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1.1360750046000001</v>
+        <v>0.86504</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.1360750046</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4">
-        <v>1.1185689141999999</v>
+      <c r="G12" s="5">
+        <v>1.1185689142</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:7">
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>810</v>
       </c>
@@ -861,13 +1483,13 @@
         <v>29</v>
       </c>
       <c r="G14" s="2">
-        <v>1.1278877947999999</v>
+        <v>1.1278877948</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
@@ -875,13 +1497,13 @@
         <v>32</v>
       </c>
       <c r="G15" s="1">
-        <v>1.1336181702999999</v>
+        <v>1.1336181703</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -895,7 +1517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
@@ -906,10 +1528,10 @@
         <v>1.14269</v>
       </c>
       <c r="E17" s="1">
-        <v>1.2156199999999999</v>
+        <v>1.21562</v>
       </c>
       <c r="F17" s="1">
-        <v>1.1454200000000001</v>
+        <v>1.14542</v>
       </c>
       <c r="G17" s="1">
         <v>1.1241556738</v>
@@ -918,27 +1540,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1">
-        <v>1.1279699999999999</v>
+        <v>1.12797</v>
       </c>
       <c r="E18" s="1">
-        <v>1.2122299999999999</v>
+        <v>1.21223</v>
       </c>
       <c r="F18" s="1">
-        <v>1.1316999999999999</v>
+        <v>1.1317</v>
       </c>
       <c r="G18" s="1">
-        <v>1.1234864395999999</v>
+        <v>1.1234864396</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
@@ -949,10 +1571,10 @@
         <v>1.10937</v>
       </c>
       <c r="E20" s="1">
-        <v>1.2100200000000001</v>
+        <v>1.21002</v>
       </c>
       <c r="F20" s="1">
-        <v>1.1133500000000001</v>
+        <v>1.11335</v>
       </c>
       <c r="G20" s="1">
         <v>1.1202194525</v>
@@ -961,7 +1583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>811</v>
       </c>
@@ -969,13 +1591,13 @@
         <v>1.11232</v>
       </c>
       <c r="E22" s="1">
-        <v>1.2098199999999999</v>
+        <v>1.20982</v>
       </c>
       <c r="F22" s="1">
         <v>1.20974</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -983,7 +1605,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="1">
-        <v>1.1145099999999999</v>
+        <v>1.11451</v>
       </c>
       <c r="E23" s="1">
         <v>1.20974</v>
@@ -998,7 +1620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1006,13 +1628,13 @@
         <v>48</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0732999999999999</v>
+        <v>1.0733</v>
       </c>
       <c r="E24" s="1">
         <v>1.18733</v>
       </c>
       <c r="F24" s="1">
-        <v>1.0783700000000001</v>
+        <v>1.07837</v>
       </c>
       <c r="G24" s="1">
         <v>1.1076500931</v>
@@ -1021,7 +1643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1038,7 +1660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1046,16 +1668,16 @@
         <v>54</v>
       </c>
       <c r="E26" s="1">
-        <v>1.2269850825741699</v>
+        <v>1.22698508257417</v>
       </c>
       <c r="G26" s="1">
-        <v>1.1279579899000001</v>
+        <v>1.1279579899</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1066,19 +1688,19 @@
         <v>1.22159</v>
       </c>
       <c r="E28" s="1">
-        <v>1.2275100000000001</v>
+        <v>1.22751</v>
       </c>
       <c r="F28" s="1">
         <v>1.22697933932882</v>
       </c>
       <c r="G28" s="1">
-        <v>1.1245982113999999</v>
+        <v>1.1245982114</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
@@ -1089,19 +1711,19 @@
         <v>1.0399</v>
       </c>
       <c r="E29" s="1">
-        <v>1.1891706278487699</v>
+        <v>1.18917062784877</v>
       </c>
       <c r="F29" s="1">
-        <v>1.0473399999999999</v>
+        <v>1.04734</v>
       </c>
       <c r="G29" s="1">
-        <v>1.1047303099000001</v>
+        <v>1.1047303099</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1115,39 +1737,59 @@
         <v>1.18073837818251</v>
       </c>
       <c r="F30" s="1">
-        <v>1.0399700000000001</v>
+        <v>1.03997</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0903590919999999</v>
+        <v>1.090359092</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:8">
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E31" s="1">
         <f>1.09180047*1.09180047</f>
-        <v>1.1920282662922208</v>
+        <v>1.19202826629222</v>
       </c>
       <c r="F31" s="1">
-        <v>0.94304508090000005</v>
+        <v>0.9430450809</v>
       </c>
       <c r="G31" s="1">
-        <v>1.0988311041000001</v>
+        <v>1.0988311041</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.18805432620679</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.925983291</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.099806786</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280"/>
+    <workbookView windowWidth="28800" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>date</t>
   </si>
@@ -202,7 +202,7 @@
     <t>sub_lgb_20210812_2</t>
   </si>
   <si>
-    <t>06-所有特征</t>
+    <t>06-all_feats</t>
   </si>
   <si>
     <t>所有特征</t>
@@ -245,6 +245,15 @@
   <si>
     <t>sub_cat_20210813_6</t>
   </si>
+  <si>
+    <t>09-catboost_lr_0.02</t>
+  </si>
+  <si>
+    <t>同上, lr=0.02</t>
+  </si>
+  <si>
+    <t>sub_cat_20210813_1</t>
+  </si>
 </sst>
 </file>
 
@@ -253,10 +262,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,21 +286,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +301,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -314,24 +325,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +347,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -361,6 +379,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -368,7 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,45 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,25 +451,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,151 +613,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,8 +651,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,7 +675,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -692,170 +736,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,26 +867,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,9 +894,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1221,12 +1221,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -1358,13 +1358,13 @@
       <c r="D7" s="2">
         <v>1.23579</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1.2752</v>
       </c>
       <c r="F7" s="2">
         <v>1.23763</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.1852766889</v>
       </c>
       <c r="I7" s="1">
@@ -1413,13 +1413,13 @@
       <c r="D10" s="2">
         <v>1.1387</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.23385</v>
       </c>
       <c r="F10" s="2">
         <v>1.14387</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>1.142014715</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1436,13 +1436,13 @@
       <c r="D11" s="2">
         <v>0.7893</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>0.86504</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>1.1360750046</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1456,10 +1456,10 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>1.1185689142</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1677,7 +1677,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>812</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -1747,10 +1750,10 @@
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="1">
@@ -1785,6 +1788,26 @@
       </c>
       <c r="H32" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>813</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.18697263552763</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.1002263263</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -261,8 +261,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -287,9 +287,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,30 +363,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,52 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,45 +429,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,85 +439,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,103 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +649,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,7 +667,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,11 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,189 +742,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -899,7 +908,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,510 +1232,510 @@
   <sheetPr/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="27.6964285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6964285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.0982142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.9017857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.2946428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9017857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.2946428571429" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="27.6964285714286" style="1"/>
+    <col min="1" max="1" width="27.6964285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.6964285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.0982142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.9017857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.2946428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.9017857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.2946428571429" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="27.6964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>807</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2">
+      <c r="B2" s="3"/>
+      <c r="D2" s="3">
         <v>1.2579</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>1.29523</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>1.25873</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>1.174728921</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.12573</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1.28473</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>1.26424</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1.1756999885</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1.25558</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1.29556</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>1.2572</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>1.1759758354</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>808</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1.89170190602989</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>1.6665106848</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1.23579</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>1.2752</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1.23763</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>1.1852766889</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>1.11</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0.9801</v>
       </c>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>1.33234019405454</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>1.2136369341</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>1.1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.9715</v>
       </c>
     </row>
     <row r="9" spans="9:10">
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>1.19</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>1.0832</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>809</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1.1387</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>1.23385</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>1.14387</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>1.142014715</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>0.7893</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>0.86504</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>1.1360750046</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>1.1185689142</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="2"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>810</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>1.1278877948</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>1.1336181703</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1.1365097515</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>1.14269</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>1.21562</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1.14542</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1.1241556738</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>1.12797</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>1.21223</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>1.1317</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>1.1234864396</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>1.10937</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>1.21002</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>1.11335</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>1.1202194525</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>811</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>1.11232</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>1.20982</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>1.20974</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>1.11451</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>1.20974</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>1.11876</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>1.1203060723</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>1.0733</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>1.18733</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>1.07837</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>1.1076500931</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>1.19059443574747</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>1.1048</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>1.22698508257417</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>1.1279579899</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>812</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>1.22159</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>1.22751</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>1.22697933932882</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>1.1245982114</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>1.0399</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>1.18917062784877</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>1.04734</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>1.1047303099</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" s="1" customFormat="1" spans="2:8">
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1750,63 +1759,63 @@
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <f>1.09180047*1.09180047</f>
         <v>1.19202826629222</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0.9430450809</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>1.0988311041</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>1.18805432620679</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>0.925983291</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>1.099806786</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>813</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>1.18697263552763</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>1.1002263263</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>73</v>
       </c>
     </row>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12260"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>date</t>
   </si>
@@ -254,6 +254,33 @@
   <si>
     <t>sub_cat_20210813_1</t>
   </si>
+  <si>
+    <t>10-new_feats</t>
+  </si>
+  <si>
+    <t>重新算的142个特征</t>
+  </si>
+  <si>
+    <t>sub_cat_20210813_2</t>
+  </si>
+  <si>
+    <t>11-cat_author_diff</t>
+  </si>
+  <si>
+    <t>cat, 加入author diff等</t>
+  </si>
+  <si>
+    <t>sub_cat_20210813_3</t>
+  </si>
+  <si>
+    <t>12-lgb_author_diff</t>
+  </si>
+  <si>
+    <t>lgb, 加入author diff等</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210813_1</t>
+  </si>
 </sst>
 </file>
 
@@ -287,7 +314,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,135 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -451,31 +478,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,145 +634,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,11 +672,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,15 +701,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,32 +720,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,153 +754,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,12 +1257,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -1409,7 +1436,7 @@
         <v>1.0832</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>809</v>
       </c>
@@ -1433,6 +1460,12 @@
       </c>
       <c r="H10" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.9796</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -1817,6 +1850,63 @@
       </c>
       <c r="H34" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.20023410706575</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.1129597678</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.1857660237478</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.8859625753</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1.1051920508</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:8">
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.07135</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.18654468578187</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0897898266</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -314,6 +314,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -322,6 +329,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +389,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,37 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -389,6 +442,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -396,66 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -484,37 +484,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,139 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,17 +672,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,16 +685,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,11 +731,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,26 +763,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,148 +774,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,7 +1262,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -1696,7 +1696,7 @@
         <v>1.19059443574747</v>
       </c>
       <c r="G25" s="2">
-        <v>1.1048</v>
+        <v>1.1047977633</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>52</v>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12200"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>date</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>sub_lgb_20210813_1</t>
+  </si>
+  <si>
+    <t>上面的结果取整</t>
   </si>
 </sst>
 </file>
@@ -1257,12 +1260,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -1909,6 +1912,14 @@
         <v>82</v>
       </c>
     </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.1615972547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="30920" windowHeight="24220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>date</t>
   </si>
@@ -284,16 +284,55 @@
   <si>
     <t>上面的结果取整</t>
   </si>
+  <si>
+    <t>13-favorite_buzhi</t>
+  </si>
+  <si>
+    <t>在12-lgb_author_diff的基础上加入favorite/buzhi等特征</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210814_1</t>
+  </si>
+  <si>
+    <t>14-imp_0.99</t>
+  </si>
+  <si>
+    <t>在13的基础上, 特征重要性取累计达到0.99</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210814_2</t>
+  </si>
+  <si>
+    <t>15-imp_0</t>
+  </si>
+  <si>
+    <t>在13的基础上, 取重要性大于0</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210814_3</t>
+  </si>
+  <si>
+    <t>16-drop</t>
+  </si>
+  <si>
+    <t>在13的基础上, 删除几个特征</t>
+  </si>
+  <si>
+    <t>sub_lgb_20210815_1</t>
+  </si>
+  <si>
+    <t>cat_20210815_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -330,6 +369,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -341,6 +411,22 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,6 +438,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -368,54 +462,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +477,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -436,29 +498,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -487,181 +526,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,11 +723,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,36 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -777,142 +816,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,12 +1299,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -1920,6 +1959,123 @@
         <v>1.1615972547</v>
       </c>
     </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.08938</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.1857717716594</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.09184</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1.091439599</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.995616</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.18174465148645</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.00471</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.093565071</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.10187</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.18596619339219</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.10469</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.0923625267</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.09098</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.18560239591497</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.09467</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.0919729637</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8">
+      <c r="G45" s="2">
+        <v>1.1261528506</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8">
+      <c r="D46" s="2">
+        <v>1.098283915</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.20544052696601</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.037689487</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.1168395886</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30920" windowHeight="24220"/>
+    <workbookView windowWidth="28800" windowHeight="12100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +416,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -384,120 +498,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -520,13 +520,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,169 +646,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,17 +723,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,47 +736,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -805,9 +758,56 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,145 +816,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1299,12 +1299,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -2076,6 +2076,20 @@
         <v>96</v>
       </c>
     </row>
+    <row r="48" spans="4:7">
+      <c r="D48" s="2">
+        <v>1.13208</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.18411325933163</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1.1317</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1.0946372282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/16-AutoML/01-ECAA/电子商务结果记录.xlsx
+++ b/16-AutoML/01-ECAA/电子商务结果记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12100"/>
+    <workbookView windowWidth="28060" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,8 +330,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -355,8 +355,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,62 +386,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -440,6 +401,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -448,8 +439,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,14 +462,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,23 +498,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,91 +520,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,85 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,15 +717,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -742,6 +739,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -758,11 +770,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,32 +807,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,152 +822,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +984,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,10 +1310,10 @@
   <sheetPr/>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6964285714286" defaultRowHeight="18"/>
@@ -1998,7 +2007,7 @@
       <c r="F41" s="2">
         <v>1.00471</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="6">
         <v>1.093565071</v>
       </c>
       <c r="H41" s="2" t="s">
